--- a/2025-10-11/11_ai.full_fixtures.xlsx
+++ b/2025-10-11/11_ai.full_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,28 +488,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Argentina - Venezuela: 1:0</t>
+          <t>Norway ✓ - Israel: 5:0</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.88</v>
+        <v>4.79</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>80%</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -523,15 +527,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Spain - Georgia: 19:45</t>
+          <t>Portugal ✓ - Republic of Ireland: 1:0</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.71</v>
+        <v>3.02</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -539,15 +543,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>79%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H3" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,31 +566,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Portugal - Republic of Ireland: 19:45</t>
+          <t>Spain ✓ - Georgia: 2:0</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.95</v>
+        <v>4.15</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>74%</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H4" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -593,15 +605,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Auckland City FC - Western Suburbs FC: 3:2</t>
+          <t>Argentina ✓ - Venezuela: 1:0</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Auckland City FC</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -609,15 +621,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>73%</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -628,15 +644,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Academia Quintana - Ponce FC: 21:30</t>
+          <t>Sociedade Esportiva Palmeiras ✓ - Esporte Clube Juventude: 4:1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.43</v>
+        <v>2.52</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Academia Quintana</t>
+          <t>Sociedade Esportiva Palmeiras</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -644,12 +660,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>70%</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H6" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -663,28 +683,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Metropolitan FA - Guayama FC: 21:00</t>
+          <t>The New Saints ✓ - Penybont FC: 6:2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Metropolitan FA</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>70%</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H7" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -698,31 +722,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Flint Town United - Llanelli Town AFC: 4:0</t>
+          <t>Jaguares de Córdoba ✓ - Leones FC: 4:0</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.77</v>
+        <v>1.39</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Jaguares de Córdoba</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>69%</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -733,15 +761,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Flint Mountain - Airbus UK Broughton: 14:30</t>
+          <t>Makedonikos Neapolis - POT Iraklis Thessaloniki ✓: 1:4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.06</v>
+        <v>2.47</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Airbus UK Broughton</t>
+          <t>POT Iraklis Thessaloniki</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -749,12 +777,16 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>65%</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -768,28 +800,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alga Bishkek - FK Dordoi Bishkek: 14:00</t>
+          <t>Bars Karakol ✓ - Asiagoal Bishkek: 6:2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FK Dordoi Bishkek</t>
+          <t>Bars Karakol</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>64%</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H10" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -803,31 +839,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Muras United Dzhalal-Abad - Talant Besh-Küngöy: 14:00</t>
+          <t>Canada X - Australia: 0:1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Muras United Dzhalal-Abad</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>62%</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -838,31 +878,31 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Holywell Town - Penrhyncoch FC: 14:30</t>
+          <t>PS Kalamata  - AO Egaleo: 1:1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.83</v>
+        <v>1.95</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Holywell Town</t>
+          <t>PS Kalamata</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -873,28 +913,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Universitario de Vinto - Club A.B.B.: 20:00</t>
+          <t>United Arab Emirates ✓ - Oman: 2:1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.47</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>56%</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H13" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -908,15 +952,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FK Laktasi - FK Slavija Sarajevo: 2:0</t>
+          <t>Bulgaria - Turkiye ✓: 1:6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.31</v>
+        <v>2.05</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FK Laktasi</t>
+          <t>Turkiye</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -924,15 +968,19 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -943,28 +991,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dalian K'un City - Shanghai Jiading Huilong: 1:2</t>
+          <t>Alga Bishkek - FK Dordoi Bishkek : 14:00</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dalian K'un City</t>
+          <t>FK Dordoi Bishkek</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -978,31 +1026,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NK Hrvace - NK Opatija: 3:0</t>
+          <t>NK Krsko - NK Triglav Kranj ✓: 0:4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>4.09</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NK Hrvace</t>
+          <t>NK Triglav Kranj</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>54%</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1013,31 +1065,31 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Annagh United FC - Harland &amp; Wolff Welders FSC: 2:0</t>
+          <t>Muras United Dzhalal-Abad  - Talant Besh-Küngöy: 14:00</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Annagh United FC</t>
+          <t>Muras United Dzhalal-Abad</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1048,26 +1100,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NK Krsko - NK Triglav Kranj: 0:4</t>
+          <t>Estonia - Italy ✓: 1:3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NK Krsko</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>53%</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H18" t="n">
         <v>4</v>
       </c>
@@ -1083,31 +1139,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Club Sportivo 2 de Mayo - Club Cerro Porteño: 21:30</t>
+          <t>CF Esperança d'Andorra - Inter Club d'Escaldes ✓: 1:2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.76</v>
+        <v>5.75</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Club Cerro Porteño</t>
+          <t>Inter Club d'Escaldes</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>53%</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H19" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1118,28 +1178,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Banik Lehota pod Vtacnikom - Slavia TU Kosice: 14:00</t>
+          <t>NK Jesenice - NK Brinje Grosuplje ✓: 2:4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.12</v>
+        <v>3.27</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Banik Lehota pod Vtacnikom</t>
+          <t>NK Brinje Grosuplje</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H20" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -1153,31 +1217,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Deportes Tolima - Envigado FC: 21:00</t>
+          <t>FC Orsha - FC Baranovichi ✓: 0:2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.83</v>
+        <v>3.5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>FC Baranovichi</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H21" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1188,28 +1256,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ynyshir Albions - Cardiff Draconians: 14:30</t>
+          <t>Guangdong GZ-Power ✓ - Nanjing City: 4:1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ynyshir Albions</t>
+          <t>Guangdong GZ-Power</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H22" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1223,28 +1295,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>El Salvador - Panama: 0:1</t>
+          <t>Flint Mountain - Airbus UK Broughton ✓: 0:2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.91</v>
+        <v>3.11</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Airbus UK Broughton</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>49%</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -1258,28 +1334,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FK Sloboda Tuzla - FK Buducnost Banovici: 0:2</t>
+          <t>UD Leiria  - UD Oliveirense: 0:0</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FK Sloboda Tuzla</t>
+          <t>UD Leiria</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -1293,31 +1369,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Carrick Rangers FC - Portadown FC: 1:0</t>
+          <t>Serbia X - Albania: 0:1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Carrick Rangers FC</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>47%</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1328,31 +1408,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CA Colón - CA Defensores Unidos (Zarate): 18:00</t>
+          <t>Llandudno FC ✓ - Caersws FC: 2:0</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.38</v>
+        <v>2.99</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CA Colón</t>
+          <t>Llandudno FC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>44%</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H26" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1363,31 +1447,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CA Barracas Central - CA Boca Juniors: 18:30</t>
+          <t>SC Cambuur Leeuwarden ✓ - De Graafschap Doetinchem: 2:0</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CA Boca Juniors</t>
+          <t>SC Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>44%</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H27" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1398,28 +1486,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel - Connah's Quay Nomads: 0:3</t>
+          <t>FK Laktasi ✓ - FK Slavija Sarajevo: 2:0</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3.28</v>
+        <v>2.25</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>FK Laktasi</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>43%</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -1433,31 +1525,31 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Garudayaksa FC - Adhyaksa FC Banten: 09:30</t>
+          <t>St. Johnstone FC  - Ross County FC: 0:0</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.05</v>
+        <v>2.03</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Garudayaksa FC</t>
+          <t>St. Johnstone FC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1468,31 +1560,31 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Venados FC Yucatán - Tepatitlán FC: 1:0</t>
+          <t>United States  - Ecuador: 1:1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Venados FC Yucatán</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1503,31 +1595,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ards FC - Limavady United FC: 1:4</t>
+          <t>Neftekhimik Nizhnekamsk X - Chaika Peschanokopskoe: 2:3</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4.29</v>
+        <v>1.07</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Limavady United FC</t>
+          <t>Neftekhimik Nizhnekamsk</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>42%</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>51%</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H31" t="n">
         <v>5</v>
       </c>
       <c r="I31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1538,31 +1634,31 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CF Esperança d'Andorra - Inter Club d'Escaldes: 18:30</t>
+          <t>Ynyshir Albions  - Cardiff Draconians: 0:0</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Inter Club d'Escaldes</t>
+          <t>Ynyshir Albions</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1573,28 +1669,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Iraq - Indonesia: 20:30</t>
+          <t>Metropolitan FA ✓ - Guayama FC: 5:0</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.81</v>
+        <v>3.53</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Metropolitan FA</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>41%</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H33" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -1608,31 +1708,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Dungannon Swifts FC - Glentoran FC: 3:1</t>
+          <t>Kitchee ✓ - Hong Kong Rangers: 3:0</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3.06</v>
+        <v>1.86</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Dungannon Swifts FC</t>
+          <t>Kitchee</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>39%</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1643,15 +1747,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chongqing Tonglianglong - Foshan Nanshi: 2:0</t>
+          <t>Club Sportivo 2 de Mayo - Club Cerro Porteño : 0:0</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Chongqing Tonglianglong</t>
+          <t>Club Cerro Porteño</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1659,12 +1763,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
@@ -1678,28 +1782,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Canada - Australia: 0:1</t>
+          <t>Rodina Moscow ✓ - SKA Khabarovsk: 2:0</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2.15</v>
+        <v>1.1</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Rodina Moscow</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>37%</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -1713,28 +1821,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Rampla Juniors FC - Central Español FC: 14:00</t>
+          <t>CA Colón  - CA Defensores Unidos (Zarate): 18:00</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Central Español FC</t>
+          <t>CA Colón</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -1748,28 +1856,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Volga Uljanovsk - Enisey Krasnoyarsk: 2:4</t>
+          <t>CA Barracas Central - CA Boca Juniors : 18:30</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Volga Uljanovsk</t>
+          <t>CA Boca Juniors</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -1783,31 +1891,31 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Institute FC - Queen's University Belfast AFC: 1:0</t>
+          <t>PSMS Medan  - Persikad: 1:1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.93</v>
+        <v>0.95</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Queen's University Belfast AFC</t>
+          <t>PSMS Medan</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1818,28 +1926,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NK Travnik - NK Stupcanica Olovo: 1:0</t>
+          <t>NK Celik Zenica ✓ - NK Vitez: 3:1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NK Travnik</t>
+          <t>NK Celik Zenica</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>33%</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -1853,28 +1965,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Detroit City FC - Loudoun United FC: 21:00</t>
+          <t>Shijiazhuang Gongfu - Liaoning Tieren ✓: 1:2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.2</v>
+        <v>1.59</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Detroit City FC</t>
+          <t>Liaoning Tieren</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>33%</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H41" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -1888,31 +2004,35 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bulgaria - Turkiye: 19:45</t>
+          <t>Annagh United FC ✓ - Harland &amp; Wolff Welders FSC: 2:0</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.06</v>
+        <v>2.45</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Turkiye</t>
+          <t>Annagh United FC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>33%</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H42" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1923,26 +2043,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Shinnik Yaroslavl - Fakel Voronezh: 0:1</t>
+          <t>NK Karlovac 1919 X - HNK Cibalia Vinkovci: 0:1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.99</v>
+        <v>2.15</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Shinnik Yaroslavl</t>
+          <t>NK Karlovac 1919</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>33%</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H43" t="n">
         <v>1</v>
       </c>
@@ -1958,28 +2082,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Latvia - Andorra: 2:2</t>
+          <t>Auckland City FC ✓ - Western Suburbs FC: 3:2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Auckland City FC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>32%</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -1993,31 +2121,35 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hwaseong FC - Chungbuk Cheongju FC: 1:0</t>
+          <t>UD Almería ✓ - Real Zaragoza: 4:2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.34</v>
+        <v>2.5</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Hwaseong FC</t>
+          <t>UD Almería</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>32%</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2028,31 +2160,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mahasarakham SBT FC - Kasetsart FC: 2:0</t>
+          <t>Bumprom Gomel ✓ - FC Slonim 2017: 2:1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2.16</v>
+        <v>1.35</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mahasarakham SBT FC</t>
+          <t>Bumprom Gomel</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>32%</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2063,31 +2199,35 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NK Celik Zenica - NK Vitez: 17:00</t>
+          <t>NK Kety Emmi Bistrica X - NK Nafta 1903: 0:2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NK Celik Zenica</t>
+          <t>NK Kety Emmi Bistrica</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>31%</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H47" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2098,31 +2238,35 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Serbia - Albania: 19:45</t>
+          <t>Garudayaksa FC ✓ - Adhyaksa FC Banten: 2:0</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.87</v>
+        <v>1.1</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Garudayaksa FC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>29%</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H48" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2133,28 +2277,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Kitchee - Hong Kong Rangers: 3:0</t>
+          <t>Chongqing Tonglianglong ✓ - Foshan Nanshi: 2:0</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4.33</v>
+        <v>1.35</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Kitchee</t>
+          <t>Chongqing Tonglianglong</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>28%</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
@@ -2168,31 +2316,35 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Estonia - Italy: 19:45</t>
+          <t>Gimpo FC X - Seoul E-Land: 0:1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.42</v>
+        <v>1.24</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Gimpo FC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>28%</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H50" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="I50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2203,15 +2355,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Gimpo FC - Seoul E-Land: 0:1</t>
+          <t>Dnepr Mogilev  - Lokomotiv Gomel: 0:0</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Gimpo FC</t>
+          <t>Dnepr Mogilev</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2219,12 +2371,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -2238,31 +2390,35 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CA Temperley - CA Nueva Chicago: 18:00</t>
+          <t>Hungary ✓ - Armenia: 2:0</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.09</v>
+        <v>2.43</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CA Temperley</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>27%</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H52" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2273,31 +2429,35 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chile - Peru: 2:1</t>
+          <t>El Salvador - Panama ✓: 0:1</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>26%</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2308,31 +2468,31 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Deportes Copiapó - San Marcos de Arica: 21:30</t>
+          <t>Spartak Kostroma  - KamAZ Naberezhnye Chelny: 1:1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.24</v>
+        <v>1.81</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Deportes Copiapó</t>
+          <t>Spartak Kostroma</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="I54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2343,31 +2503,35 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Real Frontera SC - Trujillanos FC: 20:30</t>
+          <t>Guilsfield FC ✓ - Denbigh Town: 2:1</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.04</v>
+        <v>4.04</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Real Frontera SC</t>
+          <t>Guilsfield FC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H55" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="I55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2378,31 +2542,35 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Spartak Kostroma - KamAZ Naberezhnye Chelny: 1:1</t>
+          <t>Holywell Town ✓ - Penrhyncoch FC: 4:1</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.09</v>
+        <v>2.02</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Spartak Kostroma</t>
+          <t>Holywell Town</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2413,15 +2581,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>United States - Ecuador: 1:1</t>
+          <t>Deportes Tolima X - Envigado FC: 1:2</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2429,15 +2597,19 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>24%</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2448,28 +2620,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Kampaniakos - Nestos Chrysoupolis: 1:1</t>
+          <t>Dungannon Swifts FC ✓ - Glentoran FC: 3:1</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Dungannon Swifts FC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>24%</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -2483,15 +2659,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CS Fola Esch - FC Berdenia Berbourg: 19:00</t>
+          <t>CA Temperley  - CA Nueva Chicago: 18:00</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.87</v>
+        <v>1.09</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>FC Berdenia Berbourg</t>
+          <t>CA Temperley</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2499,12 +2675,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>24%</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -2518,15 +2694,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FC Orsha - FC Baranovichi: 0:2</t>
+          <t>Club Deportivo Maldonado X - Colón FC de Uruguay: 0:2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.58</v>
+        <v>1.17</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>FC Orsha</t>
+          <t>Club Deportivo Maldonado</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2534,10 +2710,14 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>23%</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H60" t="n">
         <v>2</v>
       </c>
@@ -2553,28 +2733,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Barranquilla FC - CD Real Cartagena: 3:1</t>
+          <t>Chile ✓ - Peru: 2:1</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.18</v>
+        <v>0.09</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CD Real Cartagena</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>23%</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -2588,26 +2772,30 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Arbroath FC - Queen's Park FC: 4:1</t>
+          <t>MSK Puchov - MFK Dukla Banska Bystrica ✓: 1:4</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.91</v>
+        <v>2.13</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Arbroath FC</t>
+          <t>MFK Dukla Banska Bystrica</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>23%</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H62" t="n">
         <v>5</v>
       </c>
@@ -2623,28 +2811,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FK Drina Zvornik - FK Kozara Gradiska: 0:0</t>
+          <t>Wellington Phoenix FC Reserves - Christchurch United X: 3:0</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.65</v>
+        <v>3.55</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>FK Drina Zvornik</t>
+          <t>Christchurch United</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>23%</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
@@ -2658,15 +2850,15 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Crusaders FC - Cliftonville FC: 15:00</t>
+          <t>Deportes Copiapó ✓ - San Marcos de Arica: 3:1</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.95</v>
+        <v>1.33</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Crusaders FC</t>
+          <t>Deportes Copiapó</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2674,12 +2866,16 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H64" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -2693,28 +2889,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Wellington Phoenix FC Reserves - Christchurch United: 3:0</t>
+          <t>Venados FC Yucatán ✓ - Tepatitlán FC: 1:0</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4.3</v>
+        <v>2.35</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Christchurch United</t>
+          <t>Venados FC Yucatán</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
@@ -2728,15 +2928,15 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Alianza FC Panama - Tauro FC: 22:00</t>
+          <t>Greenock Morton FC - Partick Thistle FC : 1:1</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.2</v>
+        <v>1.77</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tauro FC</t>
+          <t>Partick Thistle FC</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2744,15 +2944,15 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>24%</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2763,15 +2963,15 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Real Oruro - CA Nacional Potosí: 22:30</t>
+          <t>Nations Football Club  - Asante Kotoko SC: 0:0</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.94</v>
+        <v>1.27</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Real Oruro</t>
+          <t>Nations Football Club</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2779,15 +2979,15 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>24%</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2798,7 +2998,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Bumprom Gomel - FC Slonim 2017: 2:1</t>
+          <t>Alianza FC Panama ✓ - Tauro FC: 2:1</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2806,7 +3006,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Bumprom Gomel</t>
+          <t>Alianza FC Panama</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2814,10 +3014,14 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H68" t="n">
         <v>3</v>
       </c>
@@ -2833,28 +3037,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Loughgall FC - Warrenpoint Town FC: 1:1</t>
+          <t>Magallanes X - Santiago Morning: 0:1</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2.21</v>
+        <v>0.75</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Loughgall FC</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="b">
         <v>1</v>
@@ -2868,31 +3076,31 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Arsenal Tula - Torpedo Moscow: 2:2</t>
+          <t>FK Drina Zvornik  - FK Kozara Gradiska: 0:0</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Arsenal Tula</t>
+          <t>FK Drina Zvornik</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>23%</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2903,15 +3111,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FK Radnik Hadzici - NK TOSK Tesanj: 2:2</t>
+          <t>Crusaders FC  - Cliftonville FC: 15:00</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>FK Radnik Hadzici</t>
+          <t>Crusaders FC</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2919,12 +3127,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I71" t="b">
         <v>0</v>
@@ -2938,15 +3146,15 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cancún FC - CD Irapuato: 02:00</t>
+          <t>HNK Tomislav T.  - NK Bratstvo Gracanica: 0:0</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.67</v>
+        <v>1.31</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Cancún FC</t>
+          <t>HNK Tomislav T.</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2954,12 +3162,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="b">
         <v>1</v>
@@ -2973,28 +3181,28 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Raith Rovers FC - Ayr United FC: 0:2</t>
+          <t>Cancún FC  - CD Irapuato: 0:0</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2.74</v>
+        <v>1.39</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Raith Rovers FC</t>
+          <t>Cancún FC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
@@ -3008,15 +3216,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Albacete Balompié - AD Ceuta FC: 23:00</t>
+          <t>Dinamo-BGUFK Minsk - Belshina Bobruisk ✓: 0:1</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.52</v>
+        <v>1.1</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Albacete Balompié</t>
+          <t>Belshina Bobruisk</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -3024,15 +3232,19 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr"/>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H74" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3043,28 +3255,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Uruguay Montevideo FC - La Luz FC: 19:30</t>
+          <t>Gualaceo SC X - Leones FC: 2:3</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.68</v>
+        <v>0.82</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Uruguay Montevideo FC</t>
+          <t>Gualaceo SC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H75" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="I75" t="b">
         <v>0</v>
@@ -3078,15 +3294,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sokol Saratov - FC Ufa: 2:2</t>
+          <t>Carrick Rangers FC ✓ - Portadown FC: 1:0</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sokol Saratov</t>
+          <t>Carrick Rangers FC</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -3094,15 +3310,19 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3113,15 +3333,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Llantwit Major - Pontypridd United: 14:30</t>
+          <t>NK Travnik ✓ - NK Stupcanica Olovo: 1:0</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.02</v>
+        <v>1.7</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Llantwit Major</t>
+          <t>NK Travnik</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -3129,15 +3349,19 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H77" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="I77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3148,31 +3372,31 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Alebrijes de Oaxaca - Atlético La Paz: 1:1</t>
+          <t>Miramar Rangers AFC  - Auckland United FC: 2:2</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3.55</v>
+        <v>2.28</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Alebrijes de Oaxaca</t>
+          <t>Miramar Rangers AFC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3183,26 +3407,30 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ballinamallard United FC - Armagh City FC: 3:1</t>
+          <t>CA Banfield - Racing Club ✓: 1:3</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2.73</v>
+        <v>1.71</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Armagh City FC</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H79" t="n">
         <v>4</v>
       </c>
@@ -3218,15 +3446,15 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CA Banfield - Racing Club: 22:00</t>
+          <t>Dalian K'un City X - Shanghai Jiading Huilong: 1:2</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1.79</v>
+        <v>1.11</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Dalian K'un City</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -3234,12 +3462,16 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H80" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I80" t="b">
         <v>0</v>
@@ -3253,31 +3485,31 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Dinamo-BGUFK Minsk - Belshina Bobruisk: 15:00</t>
+          <t>Colwyn Bay  - Cardiff Metropolitan University: 0:0</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Belshina Bobruisk</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3288,31 +3520,35 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Jaguares de Córdoba - Leones FC: 23:10</t>
+          <t>Deltras FC - Persipura Jayapura X: 2:0</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Jaguares de Córdoba</t>
+          <t>Persipura Jayapura</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H82" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3323,28 +3559,28 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Bars Karakol - Asiagoal Bishkek: 6:2</t>
+          <t>Albacete Balompié  - AD Ceuta FC: 23:00</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Bars Karakol</t>
+          <t>Albacete Balompié</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I83" t="b">
         <v>0</v>
@@ -3358,28 +3594,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CA Colegiales - CS Deportivo Madryn: 1:0</t>
+          <t>Llantwit Major ✓ - Pontypridd United: 2:0</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>CA Colegiales</t>
+          <t>Llantwit Major</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
@@ -3393,31 +3633,31 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Club de Gimnasia y Esgrima La Plata - CA Talleres: 20:00</t>
+          <t>Dynamo Puerto FC  - Marítimo La Guaira: 01:00</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2.28</v>
+        <v>1.5</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>CA Talleres</t>
+          <t>Dynamo Puerto FC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>18%</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3428,31 +3668,35 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Redfox Stara Lubovna - Tatran Liptovsky Mikulas: 14:00</t>
+          <t>FK Sloboda Tuzla X - FK Buducnost Banovici: 0:2</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3.07</v>
+        <v>2.18</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tatran Liptovsky Mikulas</t>
+          <t>FK Sloboda Tuzla</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H86" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3463,31 +3707,35 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ballymena United FC - Coleraine FC: 1:3</t>
+          <t>CA Colegiales ✓ - CS Deportivo Madryn: 1:0</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Ballymena United FC</t>
+          <t>CA Colegiales</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>17%</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3498,31 +3746,31 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cavalry FC - Forge FC: 1:1</t>
+          <t>Academia Quintana - Ponce FC : 2:2</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.39</v>
+        <v>2.38</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Cavalry FC</t>
+          <t>Ponce FC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>16%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3533,31 +3781,35 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>UD Leiria - UD Oliveirense: 0:0</t>
+          <t>CS Fola Esch ✓ - FC Berdenia Berbourg: 2:1</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2.83</v>
+        <v>1.55</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>UD Leiria</t>
+          <t>CS Fola Esch</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3568,31 +3820,31 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>HNK Tomislav T. - NK Bratstvo Gracanica: 0:0</t>
+          <t>GS Marko  - Ellas Syrou: 1:1</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2.43</v>
+        <v>0.88</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>HNK Tomislav T.</t>
+          <t>GS Marko</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>16%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3603,15 +3855,15 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Deltras FC - Persipura Jayapura: 2:0</t>
+          <t>Club Sportivo Trinidense ✓ - Club General Caballero (JLM): 2:0</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1.71</v>
+        <v>1.08</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Deltras FC</t>
+          <t>Club Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -3622,7 +3874,11 @@
           <t>16%</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H91" t="n">
         <v>2</v>
       </c>
@@ -3638,15 +3894,15 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Guangdong GZ-Power - Nanjing City: 4:1</t>
+          <t>Rampla Juniors FC - Central Español FC ✓: 0:1</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Guangdong GZ-Power</t>
+          <t>Central Español FC</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -3657,12 +3913,16 @@
           <t>16%</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H92" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3673,31 +3933,35 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Club Sportivo Trinidense - Club General Caballero (JLM): 2:0</t>
+          <t>Barranquilla FC - CD Real Cartagena X: 3:1</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Club Sportivo Trinidense</t>
+          <t>CD Real Cartagena</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>16%</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3708,19 +3972,19 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Dynamo Puerto FC - Marítimo La Guaira: 01:00</t>
+          <t>FK Radnik Hadzici - NK TOSK Tesanj : 2:2</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2.86</v>
+        <v>1.97</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Dynamo Puerto FC</t>
+          <t>NK TOSK Tesanj</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3729,10 +3993,10 @@
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3743,15 +4007,15 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ND Dravinja Kostroj - NK Rudar Velenje: 1:0</t>
+          <t>Iraq ✓ - Indonesia: 1:0</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.79</v>
+        <v>1.17</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ND Dravinja Kostroj</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -3759,10 +4023,14 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr"/>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H95" t="n">
         <v>1</v>
       </c>
@@ -3778,31 +4046,35 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Gualaceo SC - Leones FC: 21:30</t>
+          <t>Banik Lehota pod Vtacnikom ✓ - Slavia TU Kosice: 3:1</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.5</v>
+        <v>3.89</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Gualaceo SC</t>
+          <t>Banik Lehota pod Vtacnikom</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr"/>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H96" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="I96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3813,28 +4085,32 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Guilsfield FC - Denbigh Town: 14:30</t>
+          <t>Vision FC ✓ - Bibiani Gold Stars FC: 3:0</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2.91</v>
+        <v>1.37</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Guilsfield FC</t>
+          <t>Vision FC</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr"/>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H97" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="I97" t="b">
         <v>0</v>
@@ -3848,28 +4124,28 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NK Jesenice - NK Brinje Grosuplje: 14:30</t>
+          <t>Atlético Mictlán - CSD Xelajú MC : 22:00</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NK Brinje Grosuplje</t>
+          <t>CSD Xelajú MC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
@@ -3883,15 +4159,15 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Curaçao - Jamaica: 2:0</t>
+          <t>Asteras Aktor B - Niki Volou X: 3:1</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Niki Volou</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -3902,12 +4178,16 @@
           <t>15%</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3918,31 +4198,35 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PSMS Medan - Persikad: 13:00</t>
+          <t>FC Marisca Mersch X - FC Alisontia Steinsel: 1:2</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1.99</v>
+        <v>2.65</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Persikad</t>
+          <t>FC Marisca Mersch</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H100" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3953,31 +4237,35 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Miramar Rangers AFC - Auckland United FC: 2:2</t>
+          <t>Raith Rovers FC X - Ayr United FC: 0:2</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Miramar Rangers AFC</t>
+          <t>Raith Rovers FC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr"/>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3988,28 +4276,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>STK 1914 Samorin - MSK Povazska Bystrica: 14:00</t>
+          <t>Ballymena United FC - Coleraine FC ✓: 1:3</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2.29</v>
+        <v>1.7</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>STK 1914 Samorin</t>
+          <t>Coleraine FC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr"/>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H102" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I102" t="b">
         <v>0</v>
@@ -4023,31 +4315,35 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MSK Puchov - MFK Dukla Banska Bystrica: 14:00</t>
+          <t>Curaçao ✓ - Jamaica: 2:0</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2.08</v>
+        <v>1.61</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>MSK Puchov</t>
+          <t>Curaçao</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr"/>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H103" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -4058,28 +4354,28 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Associação Atlética Ponte Preta - Guarani Futebol Clube (SP): 21:00</t>
+          <t>Latvia  - Andorra: 2:2</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Associação Atlética Ponte Preta</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I104" t="b">
         <v>0</v>
@@ -4093,31 +4389,35 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FK Famos Vojkovici - FK Velez Nevesinje: 13:30</t>
+          <t>STK 1914 Samorin X - MSK Povazska Bystrica: 0:2</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2.65</v>
+        <v>1.92</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>FK Famos Vojkovici</t>
+          <t>STK 1914 Samorin</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
           <t>14%</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H105" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="I105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -4128,19 +4428,19 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FK Sutjeska Foca - FK BSK Banja Luka: 16:30</t>
+          <t>FK Famos Vojkovici  - FK Velez Nevesinje: 13:30</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1.93</v>
+        <v>2.65</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>FK Sutjeska Foca</t>
+          <t>FK Famos Vojkovici</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4149,7 +4449,7 @@
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I106" t="b">
         <v>0</v>
@@ -4163,28 +4463,32 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Llandudno FC - Caersws FC: 14:30</t>
+          <t>Associação Atlética Ponte Preta ✓ - Guarani Futebol Clube (SP): 2:0</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3.16</v>
+        <v>0.78</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Llandudno FC</t>
+          <t>Associação Atlética Ponte Preta</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
           <t>14%</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H107" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="I107" t="b">
         <v>0</v>
@@ -4198,28 +4502,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NK Kety Emmi Bistrica - NK Nafta 1903: 0:2</t>
+          <t>Detroit City FC X - Loudoun United FC: 0:1</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3.16</v>
+        <v>2.28</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>NK Nafta 1903</t>
+          <t>Detroit City FC</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>13%</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="b">
         <v>1</v>
@@ -4233,28 +4541,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Gresford Athletic - Buckley Town: 14:00</t>
+          <t>Ards FC X - Limavady United FC: 1:4</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2.61</v>
+        <v>1.78</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Buckley Town</t>
+          <t>Ards FC</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H109" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I109" t="b">
         <v>0</v>
@@ -4268,15 +4580,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Nations Football Club - Asante Kotoko SC: 0:0</t>
+          <t>FK Sutjeska Foca ✓ - FK BSK Banja Luka: 4:1</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1.31</v>
+        <v>1.88</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Nations Football Club</t>
+          <t>FK Sutjeska Foca</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -4284,15 +4596,19 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4303,28 +4619,32 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FK Igman Konjic - FK Tuzla City: 3:1</t>
+          <t>FK Osipovichi - FC Ostrovets ✓: 0:2</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3.3</v>
+        <v>2.18</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>FK Igman Konjic</t>
+          <t>FC Ostrovets</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I111" t="b">
         <v>1</v>
@@ -4338,31 +4658,35 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Persipal FC - PSIS Semarang: 1:1</t>
+          <t>Gresford Athletic - Buckley Town ✓: 0:7</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2.92</v>
+        <v>3.33</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Buckley Town</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4373,15 +4697,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CD Mirandés - CD Leganés: 0:0</t>
+          <t>NK Dubrava Tim kabel - HNK Orijent Rijeka : 2:2</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>CD Leganés</t>
+          <t>HNK Orijent Rijeka</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -4389,15 +4713,15 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4408,15 +4732,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NK Dubrava Tim kabel - HNK Orijent Rijeka: 2:2</t>
+          <t>Cavalry FC  - Forge FC: 1:1</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NK Dubrava Tim kabel</t>
+          <t>Cavalry FC</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -4424,15 +4748,15 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -4443,15 +4767,15 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>North Carolina FC - Phoenix Rising FC: 0:2</t>
+          <t>Hwaseong FC ✓ - Chungbuk Cheongju FC: 1:0</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1.89</v>
+        <v>1.14</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>North Carolina FC</t>
+          <t>Hwaseong FC</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -4459,12 +4783,16 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr"/>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="b">
         <v>1</v>
@@ -4478,15 +4806,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Athletic Club - Goiás EC: 20:00</t>
+          <t>Redfox Stara Lubovna - Tatran Liptovsky Mikulas : 1:1</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Tatran Liptovsky Mikulas</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -4494,15 +4822,15 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -4513,31 +4841,35 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Club Almirante Brown - CA Talleres (Remedios de Escalada): 18:00</t>
+          <t>Real Oruro ✓ - CA Nacional Potosí: 1:0</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.5</v>
+        <v>2.13</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Club Almirante Brown</t>
+          <t>Real Oruro</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr"/>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H117" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -4548,28 +4880,32 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Glenavon FC - Bangor FC: 0:3</t>
+          <t>Shinnik Yaroslavl - Fakel Voronezh ✓: 0:1</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>2.18</v>
+        <v>0.39</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Glenavon FC</t>
+          <t>Fakel Voronezh</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr"/>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I118" t="b">
         <v>1</v>
@@ -4583,28 +4919,28 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Treowen Stars - Aberystwyth Town: 14:30</t>
+          <t>Real Frontera SC  - Trujillanos FC: 20:30</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Treowen Stars</t>
+          <t>Real Frontera SC</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I119" t="b">
         <v>0</v>
@@ -4618,28 +4954,28 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Vision FC - Bibiani Gold Stars FC: 3:0</t>
+          <t>Sokol Saratov  - FC Ufa: 2:2</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Vision FC</t>
+          <t>Sokol Saratov</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I120" t="b">
         <v>0</v>
@@ -4653,15 +4989,15 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PS Kalamata - AO Egaleo: 1:1</t>
+          <t>Persipal FC  - PSIS Semarang: 1:1</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>PS Kalamata</t>
+          <t>Persipal FC</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -4669,7 +5005,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
@@ -4688,15 +5024,15 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NK GOSK Gabela - NK Jedinstvo Bihac: 16:30</t>
+          <t>Briton Ferry Llansawel - Connah's Quay Nomads ✓: 0:3</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>NK GOSK Gabela</t>
+          <t>Connah's Quay Nomads</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -4704,15 +5040,19 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr"/>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H122" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="I122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -4723,28 +5063,32 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Colwyn Bay - Cardiff Metropolitan University: 0:0</t>
+          <t>Holyhead Hotspur X - Ruthin Town: 1:3</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1.86</v>
+        <v>3.11</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Holyhead Hotspur</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr"/>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I123" t="b">
         <v>1</v>
@@ -4758,28 +5102,32 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FC Marisca Mersch - FC Alisontia Steinsel: 17:30</t>
+          <t>Valour FC X - HFX Wanderers FC: 0:3</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>FC Alisontia Steinsel</t>
+          <t>Valour FC</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr"/>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H124" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="I124" t="b">
         <v>0</v>
@@ -4793,31 +5141,35 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Dundela FC - Newington FC: 1:0</t>
+          <t>Flint Town United ✓ - Llanelli Town AFC: 4:0</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3.37</v>
+        <v>2.95</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Dundela FC</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr"/>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -4828,26 +5180,30 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Neftekhimik Nizhnekamsk - Chaika Peschanokopskoe: 2:3</t>
+          <t>NK GOSK Gabela X - NK Jedinstvo Bihac: 2:3</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.87</v>
+        <v>1.29</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Neftekhimik Nizhnekamsk</t>
+          <t>NK GOSK Gabela</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr"/>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H126" t="n">
         <v>5</v>
       </c>
@@ -4863,15 +5219,15 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Barry Town United - Caernarfon Town: 2:2</t>
+          <t>FC Emmen ✓ - FC Eindhoven: 6:0</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2.67</v>
+        <v>2.09</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Barry Town United</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -4879,12 +5235,16 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr"/>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H127" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I127" t="b">
         <v>0</v>
@@ -4898,15 +5258,15 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>St. Johnstone FC - Ross County FC: 0:0</t>
+          <t>Volga Uljanovsk X - Enisey Krasnoyarsk: 2:4</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>St. Johnstone FC</t>
+          <t>Volga Uljanovsk</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -4914,15 +5274,19 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr"/>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -4933,31 +5297,35 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SC Cambuur Leeuwarden - De Graafschap Doetinchem: 20:00</t>
+          <t>North Carolina FC X - Phoenix Rising FC: 0:2</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2.37</v>
+        <v>3.34</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SC Cambuur Leeuwarden</t>
+          <t>North Carolina FC</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr"/>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H129" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -4968,28 +5336,28 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sport Huancayo - Club Atlético Grau: 23:00</t>
+          <t>Club Almirante Brown  - CA Talleres (Remedios de Escalada): 18:00</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1.38</v>
+        <v>0.5</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>Club Almirante Brown</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I130" t="b">
         <v>0</v>
@@ -5003,31 +5371,35 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NK Karlovac 1919 - HNK Cibalia Vinkovci: 16:30</t>
+          <t>Ballinamallard United FC ✓ - Armagh City FC: 3:1</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2.45</v>
+        <v>3.07</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>NK Karlovac 1919</t>
+          <t>Ballinamallard United FC</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr"/>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H131" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="I131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -5038,31 +5410,31 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu - Liaoning Tieren: 1:2</t>
+          <t>CD Mirandés  - CD Leganés: 0:0</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1.68</v>
+        <v>2.14</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>CD Mirandés</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -5073,31 +5445,31 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Club Deportivo Maldonado - Colón FC de Uruguay: 14:00</t>
+          <t>Barry Town United  - Caernarfon Town: 2:2</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1.79</v>
+        <v>3.65</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Club Deportivo Maldonado</t>
+          <t>Barry Town United</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -5108,31 +5480,35 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Holyhead Hotspur - Ruthin Town: 14:30</t>
+          <t>Glenavon FC X - Bangor FC: 0:3</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3.56</v>
+        <v>2.29</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Ruthin Town</t>
+          <t>Glenavon FC</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr"/>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H134" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="I134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -5143,28 +5519,32 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FK Zvijezda 09 - FK Leotar Trebinje: 13:30</t>
+          <t>Treowen Stars X - Aberystwyth Town: 2:3</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>FK Leotar Trebinje</t>
+          <t>Treowen Stars</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr"/>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H135" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="I135" t="b">
         <v>0</v>
@@ -5178,15 +5558,15 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Dnepr Mogilev - Lokomotiv Gomel: 14:00</t>
+          <t>Dundela FC - Newington FC X: 1:0</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>2.37</v>
+        <v>2.66</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Dnepr Mogilev</t>
+          <t>Newington FC</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -5194,15 +5574,19 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>6%</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr"/>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H136" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -5213,28 +5597,32 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Asteras Aktor B - Niki Volou: 3:1</t>
+          <t>Real Sociedad B - FC Andorra X: 3:0</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Asteras Aktor B</t>
+          <t>FC Andorra</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>6%</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr"/>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H137" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I137" t="b">
         <v>0</v>
@@ -5248,31 +5636,35 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Atlético Mictlán - CSD Xelajú MC: 22:00</t>
+          <t>FK Abdysh-Ata Kant X - Muras United Dzhalal-Abad: 0:3</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>CSD Xelajú MC</t>
+          <t>FK Abdysh-Ata Kant</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>6%</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr"/>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H138" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -5283,15 +5675,15 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FK Osipovichi - FC Ostrovets: 0:2</t>
+          <t>Loughgall FC  - Warrenpoint Town FC: 1:1</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2.78</v>
+        <v>2.15</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>FC Ostrovets</t>
+          <t>Loughgall FC</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -5299,7 +5691,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
@@ -5318,28 +5710,32 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Greenock Morton FC - Partick Thistle FC: 1:1</t>
+          <t>Institute FC ✓ - Queen's University Belfast AFC: 1:0</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>3.06</v>
+        <v>2.56</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Partick Thistle FC</t>
+          <t>Institute FC</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr"/>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="b">
         <v>1</v>
@@ -5353,28 +5749,32 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Valour FC - HFX Wanderers FC: 20:00</t>
+          <t>Arbroath FC ✓ - Queen's Park FC: 4:1</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1.9</v>
+        <v>2.43</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Valour FC</t>
+          <t>Arbroath FC</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr"/>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H141" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I141" t="b">
         <v>0</v>
@@ -5388,15 +5788,15 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Makedonikos Neapolis - POT Iraklis Thessaloniki: 1:4</t>
+          <t>Universitario de Vinto ✓ - Club A.B.B.: 3:0</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Makedonikos Neapolis</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -5404,14 +5804,458 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+      <c r="I142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Alebrijes de Oaxaca - Atlético La Paz : 1:1</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Atlético La Paz</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ND Dravinja Kostroj ✓ - NK Rudar Velenje: 1:0</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>ND Dravinja Kostroj</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Mahasarakham SBT FC ✓ - Kasetsart FC: 2:0</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Mahasarakham SBT FC</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Sport Huancayo  - Club Atlético Grau: 23:00</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Sport Huancayo</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>23</v>
+      </c>
+      <c r="I146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Athletic Club - Goiás EC : 1:1</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Goiás EC</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Kampaniakos  - Nestos Chrysoupolis: 1:1</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+      <c r="I148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Arsenal Tula - Torpedo Moscow : 2:2</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Torpedo Moscow</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+      <c r="I149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>FK Zvijezda 09 - FK Leotar Trebinje : 13:30</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>FK Leotar Trebinje</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="n">
+        <v>43</v>
+      </c>
+      <c r="I150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Club de Gimnasia y Esgrima La Plata X - CA Talleres: 1:2</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Club de Gimnasia y Esgrima La Plata</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+      <c r="I151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Uruguay Montevideo FC - La Luz FC : 0:0</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>La Luz FC</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
           <t>4%</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="n">
-        <v>5</v>
-      </c>
-      <c r="I142" t="b">
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>NK Hrvace ✓ - NK Opatija: 3:0</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>NK Hrvace</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+      <c r="I153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>FK Igman Konjic ✓ - FK Tuzla City: 3:1</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>FK Igman Konjic</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+      <c r="I154" t="b">
         <v>0</v>
       </c>
     </row>
